--- a/po_analysis_by_asin/B094NX6C8R_po_data.xlsx
+++ b/po_analysis_by_asin/B094NX6C8R_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,489 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44934.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>327</v>
+        <v>390</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>44941.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>237</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45313</v>
+        <v>44948.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>105</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45320</v>
+        <v>44955.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>255</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45327</v>
+        <v>44962.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45334</v>
+        <v>44969.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45341</v>
+        <v>44976.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>66</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45348</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>36</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45355</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>262</v>
+        <v>986</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45362</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>30</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45369</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>66</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45376</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>18</v>
+        <v>481</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45383</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>1200</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45397</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>86</v>
+        <v>340</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45404</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45411</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>28</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45418</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>146</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45425</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>36</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45432</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45439</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>370</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45446</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>1008</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45453</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>706</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45467</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>490</v>
+        <v>276</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45481</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>4</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45572</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>574</v>
+        <v>532</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45579</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>1230</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45586</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>1188</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45593</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>184</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45607</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B30" t="n">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B62" t="n">
         <v>90</v>
       </c>
     </row>
@@ -693,7 +949,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -715,73 +971,169 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>924</v>
+        <v>720</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>585</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>376</v>
+        <v>986</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>1288</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>582</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>2204</v>
+        <v>937</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45566</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>3176</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45597</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B10" t="n">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45626.99999999999</v>
+      </c>
+      <c r="B22" t="n">
         <v>90</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B094NX6C8R_po_data.xlsx
+++ b/po_analysis_by_asin/B094NX6C8R_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -965,7 +966,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1135,6 +1136,1013 @@
       </c>
       <c r="B22" t="n">
         <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44934.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>104</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-264.5544824188984</v>
+      </c>
+      <c r="D2" t="n">
+        <v>483.6636126322877</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>108</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-279.2046031565401</v>
+      </c>
+      <c r="D3" t="n">
+        <v>497.0945093418065</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44948.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>111</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-267.7163719702024</v>
+      </c>
+      <c r="D4" t="n">
+        <v>457.5212404555231</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44955.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>114</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-273.6315711454195</v>
+      </c>
+      <c r="D5" t="n">
+        <v>507.0358337451593</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44962.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>117</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-250.081471906212</v>
+      </c>
+      <c r="D6" t="n">
+        <v>498.2898967643828</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>120</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-280.4855697488323</v>
+      </c>
+      <c r="D7" t="n">
+        <v>497.4232307123951</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>124</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-264.1442315628562</v>
+      </c>
+      <c r="D8" t="n">
+        <v>499.1292316534843</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>127</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-233.8494234056851</v>
+      </c>
+      <c r="D9" t="n">
+        <v>498.4418865388262</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>130</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-276.3185392744633</v>
+      </c>
+      <c r="D10" t="n">
+        <v>508.8632200736048</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>149</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-237.6555739995866</v>
+      </c>
+      <c r="D11" t="n">
+        <v>530.9765280175613</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>172</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-206.6104100792046</v>
+      </c>
+      <c r="D12" t="n">
+        <v>535.4751292011185</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>175</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-225.5481082656206</v>
+      </c>
+      <c r="D13" t="n">
+        <v>551.383453190033</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>178</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-189.0893159799625</v>
+      </c>
+      <c r="D14" t="n">
+        <v>517.5927491491868</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>182</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-197.6411589506774</v>
+      </c>
+      <c r="D15" t="n">
+        <v>566.3607138802321</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>185</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-185.1338025391354</v>
+      </c>
+      <c r="D16" t="n">
+        <v>554.8849778438534</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>195</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-193.0607688481891</v>
+      </c>
+      <c r="D17" t="n">
+        <v>572.4984087915989</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>201</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-153.020499731146</v>
+      </c>
+      <c r="D18" t="n">
+        <v>551.6099433635899</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>211</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-195.7957854077332</v>
+      </c>
+      <c r="D19" t="n">
+        <v>597.8404683996341</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>214</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-185.3408411905344</v>
+      </c>
+      <c r="D20" t="n">
+        <v>610.8437420417745</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>217</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-164.2686750123407</v>
+      </c>
+      <c r="D21" t="n">
+        <v>625.2340319358416</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>220</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-146.143448050621</v>
+      </c>
+      <c r="D22" t="n">
+        <v>585.2039270884671</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>224</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-168.3025319000546</v>
+      </c>
+      <c r="D23" t="n">
+        <v>612.9226780078297</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>227</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-137.53512931447</v>
+      </c>
+      <c r="D24" t="n">
+        <v>612.4929487256844</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>230</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-150.7093732048846</v>
+      </c>
+      <c r="D25" t="n">
+        <v>642.3411946894041</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>233</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-159.5230453904322</v>
+      </c>
+      <c r="D26" t="n">
+        <v>606.7904009715575</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>236</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-149.906347366687</v>
+      </c>
+      <c r="D27" t="n">
+        <v>630.9229676828594</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>240</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-163.4889411143204</v>
+      </c>
+      <c r="D28" t="n">
+        <v>638.1307929982212</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>243</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-148.9929232773535</v>
+      </c>
+      <c r="D29" t="n">
+        <v>624.130745827126</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>246</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-122.9672324196721</v>
+      </c>
+      <c r="D30" t="n">
+        <v>646.3801668519885</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>249</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-138.9421416870813</v>
+      </c>
+      <c r="D31" t="n">
+        <v>627.6107153080986</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>259</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-121.5845935359957</v>
+      </c>
+      <c r="D32" t="n">
+        <v>604.2546800098048</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>262</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-83.44479670365122</v>
+      </c>
+      <c r="D33" t="n">
+        <v>626.0248953906053</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>272</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-102.6154623575082</v>
+      </c>
+      <c r="D34" t="n">
+        <v>676.1838616276142</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>275</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-107.0288722903184</v>
+      </c>
+      <c r="D35" t="n">
+        <v>657.3926345302947</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>282</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-128.3904998434491</v>
+      </c>
+      <c r="D36" t="n">
+        <v>648.6251569953067</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>285</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-115.2794973991142</v>
+      </c>
+      <c r="D37" t="n">
+        <v>642.8501503405352</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>288</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-96.92855076088588</v>
+      </c>
+      <c r="D38" t="n">
+        <v>680.6549013950346</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>291</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-103.4564412217889</v>
+      </c>
+      <c r="D39" t="n">
+        <v>664.5532189980509</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>294</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-87.60498719282342</v>
+      </c>
+      <c r="D40" t="n">
+        <v>677.8611181492525</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>298</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-95.22803217145393</v>
+      </c>
+      <c r="D41" t="n">
+        <v>706.7114531754858</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>301</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-78.34314726230585</v>
+      </c>
+      <c r="D42" t="n">
+        <v>697.1913714793385</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>304</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-78.88770304403705</v>
+      </c>
+      <c r="D43" t="n">
+        <v>665.4199392570455</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>307</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-82.01046834497346</v>
+      </c>
+      <c r="D44" t="n">
+        <v>691.6513198564716</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>311</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-97.90383396352804</v>
+      </c>
+      <c r="D45" t="n">
+        <v>689.3905529132196</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>314</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-65.36472835647552</v>
+      </c>
+      <c r="D46" t="n">
+        <v>702.6927715697251</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>320</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-41.54195831201732</v>
+      </c>
+      <c r="D47" t="n">
+        <v>711.6122291007453</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>323</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-38.55179318204208</v>
+      </c>
+      <c r="D48" t="n">
+        <v>731.2202042206683</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>327</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-34.88782985927193</v>
+      </c>
+      <c r="D49" t="n">
+        <v>699.2708759240123</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>330</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-53.45992751878082</v>
+      </c>
+      <c r="D50" t="n">
+        <v>712.2691656791239</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>333</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-76.93123184600485</v>
+      </c>
+      <c r="D51" t="n">
+        <v>738.1173262006205</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>336</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-24.1006805992767</v>
+      </c>
+      <c r="D52" t="n">
+        <v>734.9525482569555</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>340</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-66.16986170477574</v>
+      </c>
+      <c r="D53" t="n">
+        <v>724.9689794204226</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>343</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-58.2199609311767</v>
+      </c>
+      <c r="D54" t="n">
+        <v>737.0528665222686</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>346</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-28.32786583160408</v>
+      </c>
+      <c r="D55" t="n">
+        <v>733.5483479019557</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>352</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-41.86272858779922</v>
+      </c>
+      <c r="D56" t="n">
+        <v>742.4894471824673</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>359</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-18.7859909752304</v>
+      </c>
+      <c r="D57" t="n">
+        <v>741.2234271517837</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>401</v>
+      </c>
+      <c r="C58" t="n">
+        <v>6.679172267878928</v>
+      </c>
+      <c r="D58" t="n">
+        <v>760.8853506168698</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>404</v>
+      </c>
+      <c r="C59" t="n">
+        <v>3.433391083362421</v>
+      </c>
+      <c r="D59" t="n">
+        <v>772.6210741277872</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>407</v>
+      </c>
+      <c r="C60" t="n">
+        <v>38.95075191517272</v>
+      </c>
+      <c r="D60" t="n">
+        <v>770.2470551871862</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>410</v>
+      </c>
+      <c r="C61" t="n">
+        <v>23.3076015071378</v>
+      </c>
+      <c r="D61" t="n">
+        <v>801.7385100048101</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>417</v>
+      </c>
+      <c r="C62" t="n">
+        <v>45.19436953447708</v>
+      </c>
+      <c r="D62" t="n">
+        <v>815.381681777607</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>420</v>
+      </c>
+      <c r="C63" t="n">
+        <v>51.20812371728365</v>
+      </c>
+      <c r="D63" t="n">
+        <v>793.4445121088487</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>423</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-1.027017586358086</v>
+      </c>
+      <c r="D64" t="n">
+        <v>813.9460319728528</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>427</v>
+      </c>
+      <c r="C65" t="n">
+        <v>44.16784170705583</v>
+      </c>
+      <c r="D65" t="n">
+        <v>768.9661968461363</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>430</v>
+      </c>
+      <c r="C66" t="n">
+        <v>44.16850666335547</v>
+      </c>
+      <c r="D66" t="n">
+        <v>803.6171143420129</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B67" t="n">
+        <v>433</v>
+      </c>
+      <c r="C67" t="n">
+        <v>43.19269030582247</v>
+      </c>
+      <c r="D67" t="n">
+        <v>833.6594584809619</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B68" t="n">
+        <v>436</v>
+      </c>
+      <c r="C68" t="n">
+        <v>70.65510752189404</v>
+      </c>
+      <c r="D68" t="n">
+        <v>826.0595223098703</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B69" t="n">
+        <v>439</v>
+      </c>
+      <c r="C69" t="n">
+        <v>49.72245673124184</v>
+      </c>
+      <c r="D69" t="n">
+        <v>852.8903620465629</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B70" t="n">
+        <v>443</v>
+      </c>
+      <c r="C70" t="n">
+        <v>50.32779553698767</v>
+      </c>
+      <c r="D70" t="n">
+        <v>830.9198299343171</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B094NX6C8R_po_data.xlsx
+++ b/po_analysis_by_asin/B094NX6C8R_po_data.xlsx
@@ -1149,7 +1149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1168,16 +1168,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1186,12 +1176,6 @@
       <c r="B2" t="n">
         <v>104</v>
       </c>
-      <c r="C2" t="n">
-        <v>-264.5544824188984</v>
-      </c>
-      <c r="D2" t="n">
-        <v>483.6636126322877</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1200,12 +1184,6 @@
       <c r="B3" t="n">
         <v>108</v>
       </c>
-      <c r="C3" t="n">
-        <v>-279.2046031565401</v>
-      </c>
-      <c r="D3" t="n">
-        <v>497.0945093418065</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1214,12 +1192,6 @@
       <c r="B4" t="n">
         <v>111</v>
       </c>
-      <c r="C4" t="n">
-        <v>-267.7163719702024</v>
-      </c>
-      <c r="D4" t="n">
-        <v>457.5212404555231</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1228,12 +1200,6 @@
       <c r="B5" t="n">
         <v>114</v>
       </c>
-      <c r="C5" t="n">
-        <v>-273.6315711454195</v>
-      </c>
-      <c r="D5" t="n">
-        <v>507.0358337451593</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1242,12 +1208,6 @@
       <c r="B6" t="n">
         <v>117</v>
       </c>
-      <c r="C6" t="n">
-        <v>-250.081471906212</v>
-      </c>
-      <c r="D6" t="n">
-        <v>498.2898967643828</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1256,12 +1216,6 @@
       <c r="B7" t="n">
         <v>120</v>
       </c>
-      <c r="C7" t="n">
-        <v>-280.4855697488323</v>
-      </c>
-      <c r="D7" t="n">
-        <v>497.4232307123951</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1270,12 +1224,6 @@
       <c r="B8" t="n">
         <v>124</v>
       </c>
-      <c r="C8" t="n">
-        <v>-264.1442315628562</v>
-      </c>
-      <c r="D8" t="n">
-        <v>499.1292316534843</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1284,12 +1232,6 @@
       <c r="B9" t="n">
         <v>127</v>
       </c>
-      <c r="C9" t="n">
-        <v>-233.8494234056851</v>
-      </c>
-      <c r="D9" t="n">
-        <v>498.4418865388262</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1298,12 +1240,6 @@
       <c r="B10" t="n">
         <v>130</v>
       </c>
-      <c r="C10" t="n">
-        <v>-276.3185392744633</v>
-      </c>
-      <c r="D10" t="n">
-        <v>508.8632200736048</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1312,12 +1248,6 @@
       <c r="B11" t="n">
         <v>149</v>
       </c>
-      <c r="C11" t="n">
-        <v>-237.6555739995866</v>
-      </c>
-      <c r="D11" t="n">
-        <v>530.9765280175613</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1326,12 +1256,6 @@
       <c r="B12" t="n">
         <v>172</v>
       </c>
-      <c r="C12" t="n">
-        <v>-206.6104100792046</v>
-      </c>
-      <c r="D12" t="n">
-        <v>535.4751292011185</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1340,12 +1264,6 @@
       <c r="B13" t="n">
         <v>175</v>
       </c>
-      <c r="C13" t="n">
-        <v>-225.5481082656206</v>
-      </c>
-      <c r="D13" t="n">
-        <v>551.383453190033</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1354,12 +1272,6 @@
       <c r="B14" t="n">
         <v>178</v>
       </c>
-      <c r="C14" t="n">
-        <v>-189.0893159799625</v>
-      </c>
-      <c r="D14" t="n">
-        <v>517.5927491491868</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1368,12 +1280,6 @@
       <c r="B15" t="n">
         <v>182</v>
       </c>
-      <c r="C15" t="n">
-        <v>-197.6411589506774</v>
-      </c>
-      <c r="D15" t="n">
-        <v>566.3607138802321</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1382,12 +1288,6 @@
       <c r="B16" t="n">
         <v>185</v>
       </c>
-      <c r="C16" t="n">
-        <v>-185.1338025391354</v>
-      </c>
-      <c r="D16" t="n">
-        <v>554.8849778438534</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1396,12 +1296,6 @@
       <c r="B17" t="n">
         <v>195</v>
       </c>
-      <c r="C17" t="n">
-        <v>-193.0607688481891</v>
-      </c>
-      <c r="D17" t="n">
-        <v>572.4984087915989</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1410,12 +1304,6 @@
       <c r="B18" t="n">
         <v>201</v>
       </c>
-      <c r="C18" t="n">
-        <v>-153.020499731146</v>
-      </c>
-      <c r="D18" t="n">
-        <v>551.6099433635899</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1424,12 +1312,6 @@
       <c r="B19" t="n">
         <v>211</v>
       </c>
-      <c r="C19" t="n">
-        <v>-195.7957854077332</v>
-      </c>
-      <c r="D19" t="n">
-        <v>597.8404683996341</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1438,12 +1320,6 @@
       <c r="B20" t="n">
         <v>214</v>
       </c>
-      <c r="C20" t="n">
-        <v>-185.3408411905344</v>
-      </c>
-      <c r="D20" t="n">
-        <v>610.8437420417745</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1452,12 +1328,6 @@
       <c r="B21" t="n">
         <v>217</v>
       </c>
-      <c r="C21" t="n">
-        <v>-164.2686750123407</v>
-      </c>
-      <c r="D21" t="n">
-        <v>625.2340319358416</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1466,12 +1336,6 @@
       <c r="B22" t="n">
         <v>220</v>
       </c>
-      <c r="C22" t="n">
-        <v>-146.143448050621</v>
-      </c>
-      <c r="D22" t="n">
-        <v>585.2039270884671</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1480,12 +1344,6 @@
       <c r="B23" t="n">
         <v>224</v>
       </c>
-      <c r="C23" t="n">
-        <v>-168.3025319000546</v>
-      </c>
-      <c r="D23" t="n">
-        <v>612.9226780078297</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1494,12 +1352,6 @@
       <c r="B24" t="n">
         <v>227</v>
       </c>
-      <c r="C24" t="n">
-        <v>-137.53512931447</v>
-      </c>
-      <c r="D24" t="n">
-        <v>612.4929487256844</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1508,12 +1360,6 @@
       <c r="B25" t="n">
         <v>230</v>
       </c>
-      <c r="C25" t="n">
-        <v>-150.7093732048846</v>
-      </c>
-      <c r="D25" t="n">
-        <v>642.3411946894041</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1522,12 +1368,6 @@
       <c r="B26" t="n">
         <v>233</v>
       </c>
-      <c r="C26" t="n">
-        <v>-159.5230453904322</v>
-      </c>
-      <c r="D26" t="n">
-        <v>606.7904009715575</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1536,12 +1376,6 @@
       <c r="B27" t="n">
         <v>236</v>
       </c>
-      <c r="C27" t="n">
-        <v>-149.906347366687</v>
-      </c>
-      <c r="D27" t="n">
-        <v>630.9229676828594</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1550,12 +1384,6 @@
       <c r="B28" t="n">
         <v>240</v>
       </c>
-      <c r="C28" t="n">
-        <v>-163.4889411143204</v>
-      </c>
-      <c r="D28" t="n">
-        <v>638.1307929982212</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1564,12 +1392,6 @@
       <c r="B29" t="n">
         <v>243</v>
       </c>
-      <c r="C29" t="n">
-        <v>-148.9929232773535</v>
-      </c>
-      <c r="D29" t="n">
-        <v>624.130745827126</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1578,12 +1400,6 @@
       <c r="B30" t="n">
         <v>246</v>
       </c>
-      <c r="C30" t="n">
-        <v>-122.9672324196721</v>
-      </c>
-      <c r="D30" t="n">
-        <v>646.3801668519885</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1592,12 +1408,6 @@
       <c r="B31" t="n">
         <v>249</v>
       </c>
-      <c r="C31" t="n">
-        <v>-138.9421416870813</v>
-      </c>
-      <c r="D31" t="n">
-        <v>627.6107153080986</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1606,12 +1416,6 @@
       <c r="B32" t="n">
         <v>259</v>
       </c>
-      <c r="C32" t="n">
-        <v>-121.5845935359957</v>
-      </c>
-      <c r="D32" t="n">
-        <v>604.2546800098048</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1620,12 +1424,6 @@
       <c r="B33" t="n">
         <v>262</v>
       </c>
-      <c r="C33" t="n">
-        <v>-83.44479670365122</v>
-      </c>
-      <c r="D33" t="n">
-        <v>626.0248953906053</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1634,12 +1432,6 @@
       <c r="B34" t="n">
         <v>272</v>
       </c>
-      <c r="C34" t="n">
-        <v>-102.6154623575082</v>
-      </c>
-      <c r="D34" t="n">
-        <v>676.1838616276142</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1648,12 +1440,6 @@
       <c r="B35" t="n">
         <v>275</v>
       </c>
-      <c r="C35" t="n">
-        <v>-107.0288722903184</v>
-      </c>
-      <c r="D35" t="n">
-        <v>657.3926345302947</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1662,12 +1448,6 @@
       <c r="B36" t="n">
         <v>282</v>
       </c>
-      <c r="C36" t="n">
-        <v>-128.3904998434491</v>
-      </c>
-      <c r="D36" t="n">
-        <v>648.6251569953067</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1676,12 +1456,6 @@
       <c r="B37" t="n">
         <v>285</v>
       </c>
-      <c r="C37" t="n">
-        <v>-115.2794973991142</v>
-      </c>
-      <c r="D37" t="n">
-        <v>642.8501503405352</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1690,12 +1464,6 @@
       <c r="B38" t="n">
         <v>288</v>
       </c>
-      <c r="C38" t="n">
-        <v>-96.92855076088588</v>
-      </c>
-      <c r="D38" t="n">
-        <v>680.6549013950346</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1704,12 +1472,6 @@
       <c r="B39" t="n">
         <v>291</v>
       </c>
-      <c r="C39" t="n">
-        <v>-103.4564412217889</v>
-      </c>
-      <c r="D39" t="n">
-        <v>664.5532189980509</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1718,12 +1480,6 @@
       <c r="B40" t="n">
         <v>294</v>
       </c>
-      <c r="C40" t="n">
-        <v>-87.60498719282342</v>
-      </c>
-      <c r="D40" t="n">
-        <v>677.8611181492525</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1732,12 +1488,6 @@
       <c r="B41" t="n">
         <v>298</v>
       </c>
-      <c r="C41" t="n">
-        <v>-95.22803217145393</v>
-      </c>
-      <c r="D41" t="n">
-        <v>706.7114531754858</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1746,12 +1496,6 @@
       <c r="B42" t="n">
         <v>301</v>
       </c>
-      <c r="C42" t="n">
-        <v>-78.34314726230585</v>
-      </c>
-      <c r="D42" t="n">
-        <v>697.1913714793385</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1760,12 +1504,6 @@
       <c r="B43" t="n">
         <v>304</v>
       </c>
-      <c r="C43" t="n">
-        <v>-78.88770304403705</v>
-      </c>
-      <c r="D43" t="n">
-        <v>665.4199392570455</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1774,12 +1512,6 @@
       <c r="B44" t="n">
         <v>307</v>
       </c>
-      <c r="C44" t="n">
-        <v>-82.01046834497346</v>
-      </c>
-      <c r="D44" t="n">
-        <v>691.6513198564716</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1788,12 +1520,6 @@
       <c r="B45" t="n">
         <v>311</v>
       </c>
-      <c r="C45" t="n">
-        <v>-97.90383396352804</v>
-      </c>
-      <c r="D45" t="n">
-        <v>689.3905529132196</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1802,12 +1528,6 @@
       <c r="B46" t="n">
         <v>314</v>
       </c>
-      <c r="C46" t="n">
-        <v>-65.36472835647552</v>
-      </c>
-      <c r="D46" t="n">
-        <v>702.6927715697251</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1816,12 +1536,6 @@
       <c r="B47" t="n">
         <v>320</v>
       </c>
-      <c r="C47" t="n">
-        <v>-41.54195831201732</v>
-      </c>
-      <c r="D47" t="n">
-        <v>711.6122291007453</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1830,12 +1544,6 @@
       <c r="B48" t="n">
         <v>323</v>
       </c>
-      <c r="C48" t="n">
-        <v>-38.55179318204208</v>
-      </c>
-      <c r="D48" t="n">
-        <v>731.2202042206683</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1844,12 +1552,6 @@
       <c r="B49" t="n">
         <v>327</v>
       </c>
-      <c r="C49" t="n">
-        <v>-34.88782985927193</v>
-      </c>
-      <c r="D49" t="n">
-        <v>699.2708759240123</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1858,12 +1560,6 @@
       <c r="B50" t="n">
         <v>330</v>
       </c>
-      <c r="C50" t="n">
-        <v>-53.45992751878082</v>
-      </c>
-      <c r="D50" t="n">
-        <v>712.2691656791239</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1872,12 +1568,6 @@
       <c r="B51" t="n">
         <v>333</v>
       </c>
-      <c r="C51" t="n">
-        <v>-76.93123184600485</v>
-      </c>
-      <c r="D51" t="n">
-        <v>738.1173262006205</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1886,12 +1576,6 @@
       <c r="B52" t="n">
         <v>336</v>
       </c>
-      <c r="C52" t="n">
-        <v>-24.1006805992767</v>
-      </c>
-      <c r="D52" t="n">
-        <v>734.9525482569555</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1900,12 +1584,6 @@
       <c r="B53" t="n">
         <v>340</v>
       </c>
-      <c r="C53" t="n">
-        <v>-66.16986170477574</v>
-      </c>
-      <c r="D53" t="n">
-        <v>724.9689794204226</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1914,12 +1592,6 @@
       <c r="B54" t="n">
         <v>343</v>
       </c>
-      <c r="C54" t="n">
-        <v>-58.2199609311767</v>
-      </c>
-      <c r="D54" t="n">
-        <v>737.0528665222686</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1928,12 +1600,6 @@
       <c r="B55" t="n">
         <v>346</v>
       </c>
-      <c r="C55" t="n">
-        <v>-28.32786583160408</v>
-      </c>
-      <c r="D55" t="n">
-        <v>733.5483479019557</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -1942,12 +1608,6 @@
       <c r="B56" t="n">
         <v>352</v>
       </c>
-      <c r="C56" t="n">
-        <v>-41.86272858779922</v>
-      </c>
-      <c r="D56" t="n">
-        <v>742.4894471824673</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -1956,12 +1616,6 @@
       <c r="B57" t="n">
         <v>359</v>
       </c>
-      <c r="C57" t="n">
-        <v>-18.7859909752304</v>
-      </c>
-      <c r="D57" t="n">
-        <v>741.2234271517837</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -1970,12 +1624,6 @@
       <c r="B58" t="n">
         <v>401</v>
       </c>
-      <c r="C58" t="n">
-        <v>6.679172267878928</v>
-      </c>
-      <c r="D58" t="n">
-        <v>760.8853506168698</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -1984,12 +1632,6 @@
       <c r="B59" t="n">
         <v>404</v>
       </c>
-      <c r="C59" t="n">
-        <v>3.433391083362421</v>
-      </c>
-      <c r="D59" t="n">
-        <v>772.6210741277872</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -1998,12 +1640,6 @@
       <c r="B60" t="n">
         <v>407</v>
       </c>
-      <c r="C60" t="n">
-        <v>38.95075191517272</v>
-      </c>
-      <c r="D60" t="n">
-        <v>770.2470551871862</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -2012,12 +1648,6 @@
       <c r="B61" t="n">
         <v>410</v>
       </c>
-      <c r="C61" t="n">
-        <v>23.3076015071378</v>
-      </c>
-      <c r="D61" t="n">
-        <v>801.7385100048101</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -2026,12 +1656,6 @@
       <c r="B62" t="n">
         <v>417</v>
       </c>
-      <c r="C62" t="n">
-        <v>45.19436953447708</v>
-      </c>
-      <c r="D62" t="n">
-        <v>815.381681777607</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -2040,12 +1664,6 @@
       <c r="B63" t="n">
         <v>420</v>
       </c>
-      <c r="C63" t="n">
-        <v>51.20812371728365</v>
-      </c>
-      <c r="D63" t="n">
-        <v>793.4445121088487</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -2054,12 +1672,6 @@
       <c r="B64" t="n">
         <v>423</v>
       </c>
-      <c r="C64" t="n">
-        <v>-1.027017586358086</v>
-      </c>
-      <c r="D64" t="n">
-        <v>813.9460319728528</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -2068,12 +1680,6 @@
       <c r="B65" t="n">
         <v>427</v>
       </c>
-      <c r="C65" t="n">
-        <v>44.16784170705583</v>
-      </c>
-      <c r="D65" t="n">
-        <v>768.9661968461363</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -2082,12 +1688,6 @@
       <c r="B66" t="n">
         <v>430</v>
       </c>
-      <c r="C66" t="n">
-        <v>44.16850666335547</v>
-      </c>
-      <c r="D66" t="n">
-        <v>803.6171143420129</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -2096,12 +1696,6 @@
       <c r="B67" t="n">
         <v>433</v>
       </c>
-      <c r="C67" t="n">
-        <v>43.19269030582247</v>
-      </c>
-      <c r="D67" t="n">
-        <v>833.6594584809619</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -2110,12 +1704,6 @@
       <c r="B68" t="n">
         <v>436</v>
       </c>
-      <c r="C68" t="n">
-        <v>70.65510752189404</v>
-      </c>
-      <c r="D68" t="n">
-        <v>826.0595223098703</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -2124,12 +1712,6 @@
       <c r="B69" t="n">
         <v>439</v>
       </c>
-      <c r="C69" t="n">
-        <v>49.72245673124184</v>
-      </c>
-      <c r="D69" t="n">
-        <v>852.8903620465629</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -2137,12 +1719,6 @@
       </c>
       <c r="B70" t="n">
         <v>443</v>
-      </c>
-      <c r="C70" t="n">
-        <v>50.32779553698767</v>
-      </c>
-      <c r="D70" t="n">
-        <v>830.9198299343171</v>
       </c>
     </row>
   </sheetData>
